--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 39165-2024</t>
+          <t>A 61064-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45548</v>
+        <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -698,320 +698,320 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsbräsma
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 39165-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 61064-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45645.49443287037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 26855-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsbräsma
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 54424-2023</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45233</v>
+        <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,23 +1024,23 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
@@ -1048,473 +1048,473 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Korndådra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 15456-2024</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Lundticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 15475-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>4.7</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 54127-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45964</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 1577-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>21.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 11170-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Korndådra</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45883</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45880</v>
+        <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2363,13 +2363,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2406,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45070</v>
+        <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2426,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2463,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45895</v>
+        <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2483,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2520,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44449</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2540,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2577,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2597,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2634,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45761</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2654,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2691,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45386</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2711,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2748,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44382</v>
+        <v>45070</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2768,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2805,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45442</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2825,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2862,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2882,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2919,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45030</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2939,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2976,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45671</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2996,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3033,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3053,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3090,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3110,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3147,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45141</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3167,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3204,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3224,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3261,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45911</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3281,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3318,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45531</v>
+        <v>44991</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3338,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3375,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46042</v>
+        <v>44993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3395,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3432,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45929</v>
+        <v>44361</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3452,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3489,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45909</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3509,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3546,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45030</v>
+        <v>45929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3566,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>44309</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>22.1</v>
+        <v>17.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3680,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3717,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45769</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3737,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3774,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3794,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3831,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45394</v>
+        <v>44974</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3851,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3888,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45988</v>
+        <v>45671</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3908,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3945,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45434</v>
+        <v>45880</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3964,8 +3959,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4002,14 +4002,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44923</v>
+        <v>45910</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4116,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44600</v>
+        <v>45883</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45016</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44991</v>
+        <v>45111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44361</v>
+        <v>45758</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44986</v>
+        <v>45394</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45719</v>
+        <v>45386</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>12.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45373</v>
+        <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13.9</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45176</v>
+        <v>45911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45671</v>
+        <v>45761</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45182</v>
+        <v>44670</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45225</v>
+        <v>45909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44617</v>
+        <v>46042</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44806</v>
+        <v>45747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45330</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>22.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45758</v>
+        <v>44593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44593</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44987</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44670</v>
+        <v>45988</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44910</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44974</v>
+        <v>45141</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>44382</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>44910</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44993</v>
+        <v>45330</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45394</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45111</v>
+        <v>44449</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44588</v>
+        <v>44923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45747</v>
+        <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44986</v>
+        <v>45176</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45330</v>
+        <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45386</v>
+        <v>45225</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>12.4</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45373</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>13.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45330</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45719</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>44588</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45386</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45330</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44309</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>17.8</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45769</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45548</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45306</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45096.65549768518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45070</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45030</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45671</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45908.3650462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45708.64819444445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45911.4182175926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44991</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44361</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44309</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45761.36854166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>45769</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>45531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44974</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45671</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45880</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45910</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45883</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45448.49752314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45573.31803240741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45758</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45394</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45386</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45987.61269675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45988.62502314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>45448.48983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45645.47678240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45761</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44670</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>46042</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45588.45855324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>45747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45772.67386574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>45988</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45141</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44382</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44910</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>45330</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45434.55394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44449</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45176</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>45225</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45373</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45330</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45188.43670138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45719</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44588</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44449.66324074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45386</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45782.61987268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45782.66538194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45782.67826388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45785.65381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45434.37376157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45526.69388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45548</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45306</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45096.65549768518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45070</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45030</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45671</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45908.3650462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45708.64819444445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45911.4182175926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44991</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44361</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44309</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45761.36854166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>45769</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>45531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44974</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45671</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45880</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45910</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45883</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45448.49752314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45573.31803240741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45758</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45394</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45386</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45987.61269675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45988.62502314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>45448.48983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45645.47678240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45761</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44670</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>46042</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45588.45855324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>45747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45772.67386574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>45988</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45141</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44382</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44910</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>45330</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45434.55394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44449</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45176</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>45225</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45373</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45330</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45188.43670138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45719</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44588</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44449.66324074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45386</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45782.61987268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45782.66538194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45782.67826388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45785.65381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45434.37376157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45526.69388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61064-2024</t>
+          <t>A 39165-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45645.49443287037</v>
+        <v>45548</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -698,320 +698,320 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 61064-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45645.49443287037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 26855-2022</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44740</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>5.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 39165-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44987</v>
+        <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1058,45 +1058,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Korndådra</t>
+          <t>Lundticka</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 54424-2023</t>
+          <t>A 15475-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45233</v>
+        <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1143,130 +1143,130 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15475-2024</t>
+          <t>A 1577-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45401</v>
+        <v>45306</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>21.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1313,31 +1313,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,14 +1433,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45306</v>
+        <v>44987</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1453,23 +1453,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>21.2</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1477,41 +1477,41 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Korndådra</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>44382</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44617</v>
+        <v>45442</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44986</v>
+        <v>45141</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44987</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44986</v>
+        <v>45030</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45070</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45394</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44600</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45030</v>
+        <v>45434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45671</v>
+        <v>44923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>44309</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>17.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45016</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44991</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44991</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44993</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44361</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>44361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45929</v>
+        <v>45880</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3560,8 +3560,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3603,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44309</v>
+        <v>44986</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3623,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>17.8</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3660,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45895</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3680,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3717,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45769</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3737,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3774,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45531</v>
+        <v>45929</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3794,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3831,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44974</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3851,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3888,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45671</v>
+        <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3908,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3945,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45880</v>
+        <v>44449</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3959,13 +3964,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4002,14 +4002,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45895</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45910</v>
+        <v>45761</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4116,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45883</v>
+        <v>45910</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>44600</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45111</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45758</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45394</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45386</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>12.4</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45911</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45373</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>13.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45394</v>
+        <v>45176</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45911</v>
+        <v>45671</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45761</v>
+        <v>45182</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44670</v>
+        <v>45225</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45909</v>
+        <v>46042</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46042</v>
+        <v>44617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45909</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45747</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44593</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45330</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45758</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>45988</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45434</v>
+        <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45141</v>
+        <v>44987</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44382</v>
+        <v>44670</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5776,7 +5776,7 @@
         <v>44910</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45330</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44449</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45442</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44923</v>
+        <v>44993</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45182</v>
+        <v>45394</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45176</v>
+        <v>45111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45016</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45225</v>
+        <v>44588</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45373</v>
+        <v>45747</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>44986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>45330</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45386</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>12.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45719</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44588</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45386</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45330</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45330</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 39165-2024</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45548</v>
+        <v>45884</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -695,323 +695,323 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61064-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45645.49443287037</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsbräsma
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 39165-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 61064-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45645.49443287037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 26855-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsbräsma
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 15456-2024</t>
+          <t>A 1577-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45401</v>
+        <v>45306</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>21.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1048,55 +1048,55 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lundticka</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 15475-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45401</v>
+        <v>44987</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -1133,41 +1133,41 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Korndådra</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 8169-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45306</v>
+        <v>45351</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,17 +1279,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.2</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1313,45 +1313,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Mjukdån</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 54127-2025</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45964</v>
+        <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1391,215 +1391,215 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 54127-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 11170-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Korndådra</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 8169-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Mjukdån</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45386</v>
+        <v>45330</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44382</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45442</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45141</v>
+        <v>45719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45531</v>
+        <v>44617</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45030</v>
+        <v>44588</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45883</v>
+        <v>44986</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>44987</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45394</v>
+        <v>45386</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45434</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44923</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44309</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>17.8</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45769</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45016</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44991</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>44986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44361</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45880</v>
+        <v>45330</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3560,13 +3560,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44986</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45895</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3680,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3717,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45070</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3737,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3774,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45929</v>
+        <v>44600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3794,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3831,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3851,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3888,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45070</v>
+        <v>45030</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3908,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3945,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44449</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3965,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4002,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4022,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45761</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4079,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4116,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45910</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44600</v>
+        <v>44991</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4193,7 +4188,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4245,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4282,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45719</v>
+        <v>45929</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4302,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4339,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44361</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4359,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4396,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4416,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4453,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>44309</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4473,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>17.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4510,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4530,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4567,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45911</v>
+        <v>45769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4587,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4624,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45373</v>
+        <v>45531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4644,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.9</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4681,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45176</v>
+        <v>44974</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4701,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4738,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45671</v>
+        <v>45880</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,8 +4757,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671</v>
+        <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45182</v>
+        <v>45883</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45225</v>
+        <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46042</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44617</v>
+        <v>45111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45909</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45758</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45394</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>22.1</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44806</v>
+        <v>45386</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>12.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45330</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45758</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45988</v>
+        <v>45394</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44593</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44987</v>
+        <v>45911</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44670</v>
+        <v>45761</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44910</v>
+        <v>44670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45909</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44974</v>
+        <v>46042</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45747</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44993</v>
+        <v>44593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45394</v>
+        <v>44806</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45111</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>22.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44588</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45747</v>
+        <v>45988</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44986</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45330</v>
+        <v>45434</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45386</v>
+        <v>45141</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.4</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>44382</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44910</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45330</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>44449</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45442</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>44923</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45182</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45330</v>
+        <v>45176</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45016</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45225</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45373</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>13.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 38522-2025</t>
+          <t>A 61064-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45884</v>
+        <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -704,314 +704,314 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 39165-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Stor häxört</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 61064-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45645.49443287037</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H4" t="n">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26855-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 39165-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45306</v>
+        <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,20 +1024,20 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1048,469 +1048,469 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1577-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 11170-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44987</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Korndådra</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 8169-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 8169-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Mjukdån</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15475-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45964</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1945,14 +1945,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44501</v>
+        <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44295</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42617-2022</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44831.85881944445</v>
+        <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>45141</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45330</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 42617-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>44831.85881944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45761</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45719</v>
+        <v>45531</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44617</v>
+        <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44588</v>
+        <v>45030</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44986</v>
+        <v>45442</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>44600</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44987</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45386</v>
+        <v>44670</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>45394</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45719</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>44923</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44986</v>
+        <v>44910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45016</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45330</v>
+        <v>45373</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.5</v>
+        <v>13.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45176</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>44991</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45070</v>
+        <v>45671</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44600</v>
+        <v>45671</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45182</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45030</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45225</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45671</v>
+        <v>44974</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>44617</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44991</v>
+        <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>17.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44993</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4282,14 +4282,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45929</v>
+        <v>45769</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4339,14 +4339,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44361</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4396,14 +4396,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>44361</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4453,14 +4453,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44309</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>17.8</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4510,14 +4510,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>44986</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4567,14 +4567,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45769</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4624,14 +4624,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45531</v>
+        <v>44993</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4681,14 +4681,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44974</v>
+        <v>45880</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4700,8 +4700,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45880</v>
+        <v>44806</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4757,13 +4762,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45895</v>
+        <v>45330</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45671</v>
+        <v>45758</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45111</v>
+        <v>45070</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45394</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45758</v>
+        <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45394</v>
+        <v>45111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45910</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45386</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>44593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45394</v>
+        <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>44588</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45911</v>
+        <v>45747</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45761</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44670</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45909</v>
+        <v>44986</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46042</v>
+        <v>45330</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45747</v>
+        <v>45386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>12.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44593</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44806</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>22.1</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45929</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45988</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45434</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45141</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44382</v>
+        <v>45330</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44910</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45330</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45910</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44449</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45442</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44923</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45182</v>
+        <v>45911</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45176</v>
+        <v>46042</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45016</v>
+        <v>45909</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45225</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.4</v>
+        <v>22.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45373</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>13.9</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45988</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39165-2024</t>
+          <t>A 26855-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45548</v>
+        <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -781,51 +781,51 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm
-Ask</t>
+          <t>Skogsbräsma
+Mattlummer</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>45884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 39165-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44740</v>
+        <v>45548</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,80 +938,80 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Mattlummer</t>
+          <t>Skogsalm
+Ask</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 15456-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45401</v>
+        <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1058,548 +1058,548 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Korndådra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15456-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Lundticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 15475-2024</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>4.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 54127-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 1577-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>21.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 8169-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 11170-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Korndådra</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 8169-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Mjukdån</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 54127-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1945,14 +1945,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44308</v>
+        <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 42617-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44501</v>
+        <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44295</v>
+        <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45141</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42617-2022</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44831.85881944445</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45761</v>
+        <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45531</v>
+        <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45386</v>
+        <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44382</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45030</v>
+        <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45442</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44600</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44670</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>22.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>44600</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45394</v>
+        <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45719</v>
+        <v>45671</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45434</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44923</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44910</v>
+        <v>44309</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>17.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45016</v>
+        <v>44991</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45769</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45373</v>
+        <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45176</v>
+        <v>44361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44991</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45671</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45671</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45182</v>
+        <v>45880</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3845,8 +3845,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3888,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45895</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3908,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3945,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45225</v>
+        <v>45883</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3965,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +4002,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44974</v>
+        <v>45531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4022,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44617</v>
+        <v>44974</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45671</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44309</v>
+        <v>45929</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>17.8</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4282,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45769</v>
+        <v>45111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4302,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4339,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4359,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4396,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44361</v>
+        <v>45758</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4416,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4453,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45394</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4473,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4510,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44986</v>
+        <v>45386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4530,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4567,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4587,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4624,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44993</v>
+        <v>45394</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4644,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4681,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45880</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4698,11 +4703,6 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44806</v>
+        <v>45761</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45330</v>
+        <v>44670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45758</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45070</v>
+        <v>44593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45394</v>
+        <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44449</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45111</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45883</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44593</v>
+        <v>45909</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44987</v>
+        <v>46042</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44588</v>
+        <v>45988</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45747</v>
+        <v>45141</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>44382</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>44910</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44986</v>
+        <v>45330</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45330</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>44449</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45386</v>
+        <v>45442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.4</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>44923</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45176</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45929</v>
+        <v>45225</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45373</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>13.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45330</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45330</v>
+        <v>45719</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>44588</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45910</v>
+        <v>45386</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45911</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46042</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45909</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>22.1</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45988</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44740</v>
+        <v>45884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -800,121 +800,121 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45548</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,14 +1004,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 8169-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44987</v>
+        <v>45351</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1051,555 +1051,555 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Mjukdån</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 11170-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Korndådra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 54424-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45233</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>5.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Myskmadra</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 15456-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Lundticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 15475-2024</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4.7</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 54127-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45964</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>1.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 1577-2024</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>21.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 8169-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Mjukdån</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44244</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44501</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44986</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45330</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>44986</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>22.1</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45070</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44600</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45030</v>
+        <v>45070</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45671</v>
+        <v>44600</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44309</v>
+        <v>45030</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>17.8</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44991</v>
+        <v>45671</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45769</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44993</v>
+        <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>17.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44361</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45929</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45769</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45880</v>
+        <v>44991</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3845,13 +3845,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3888,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45895</v>
+        <v>44993</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3908,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3945,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45883</v>
+        <v>44361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3965,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4002,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45531</v>
+        <v>45880</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4021,8 +4016,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44974</v>
+        <v>45895</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.8</v>
+        <v>0.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4116,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45671</v>
+        <v>45883</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45929</v>
+        <v>45910</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45531</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45111</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>22.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>44974</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45758</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45394</v>
+        <v>45671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45386</v>
+        <v>46042</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12.4</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45988</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45394</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45761</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44670</v>
+        <v>45111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45747</v>
+        <v>45758</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44593</v>
+        <v>45394</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44806</v>
+        <v>45909</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>12.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45394</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45911</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45909</v>
+        <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46042</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45434</v>
+        <v>45747</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45988</v>
+        <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45141</v>
+        <v>44806</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44382</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44910</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45330</v>
+        <v>45434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45141</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44449</v>
+        <v>44382</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45442</v>
+        <v>44910</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44923</v>
+        <v>45330</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45182</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45176</v>
+        <v>44449</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45016</v>
+        <v>45442</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45225</v>
+        <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45373</v>
+        <v>45182</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>13.9</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45176</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45330</v>
+        <v>45016</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45225</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45719</v>
+        <v>45373</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>13.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44588</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45330</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45386</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44588</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45386</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45330</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61064-2024</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45645.49443287037</v>
+        <v>45884</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -704,131 +704,131 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61064-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45645.49443287037</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44740</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45548</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45351</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44987</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,14 +1344,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15475-2024</t>
+          <t>A 54127-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45401</v>
+        <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,17 +1364,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1398,123 +1398,123 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 54127-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45306</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 8201-2021</t>
+          <t>A 30657-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44244</v>
+        <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,14 +1660,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30657-2022</t>
+          <t>A 5937-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44763.51302083334</v>
+        <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1717,14 +1717,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5937-2022</t>
+          <t>A 57451-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44598</v>
+        <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1774,14 +1774,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57451-2021</t>
+          <t>A 46254-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44483.65050925926</v>
+        <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1831,14 +1831,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46254-2022</t>
+          <t>A 15007-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44847.63377314815</v>
+        <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1888,14 +1888,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15007-2021</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44281</v>
+        <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1945,14 +1945,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44501</v>
+        <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 42617-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44295</v>
+        <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42617-2022</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44831.85881944445</v>
+        <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44308</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>44617</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44986</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44987</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>44987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45330</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45330</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44986</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45070</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44600</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45070</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>44600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>45030</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45671</v>
+        <v>45929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45671</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44309</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>17.8</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44309</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>17.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45929</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45769</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>44991</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3883,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44993</v>
+        <v>45769</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44361</v>
+        <v>44993</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45880</v>
+        <v>44361</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4016,13 +4016,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45895</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4079,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4116,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45883</v>
+        <v>45910</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45910</v>
+        <v>45880</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4192,8 +4187,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45531</v>
+        <v>45895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45883</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>22.1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44974</v>
+        <v>45911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45531</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45671</v>
+        <v>44974</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46042</v>
+        <v>45909</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45988</v>
+        <v>45671</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45111</v>
+        <v>45758</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45911</v>
+        <v>45394</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45386</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>12.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45758</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>45394</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45909</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45386</v>
+        <v>45761</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.4</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>44670</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45394</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>22.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>46042</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761</v>
+        <v>45988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44670</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>46065</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45747</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44593</v>
+        <v>46051</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44806</v>
+        <v>45747</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>44806</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45434</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45141</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44382</v>
+        <v>45434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44910</v>
+        <v>45141</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45330</v>
+        <v>44382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>44910</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44449</v>
+        <v>45330</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45442</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44923</v>
+        <v>44449</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45182</v>
+        <v>45442</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45176</v>
+        <v>44923</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45016</v>
+        <v>45182</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45225</v>
+        <v>45176</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45373</v>
+        <v>45016</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>13.9</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45330</v>
+        <v>45373</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>13.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45719</v>
+        <v>45330</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44588</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45719</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45386</v>
+        <v>44588</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>45386</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,116 +7194,173 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
+          <t>A 21507-2025</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>45782.61987268519</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>A 21541-2025</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>45782.66538194445</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>A 21556-2025</t>
         </is>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B114" s="1" t="n">
         <v>45782.67826388889</v>
       </c>
-      <c r="C112" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
+      <c r="C114" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
         <v>1.3</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" s="2" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>A 22203-2025</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>45785.65381944444</v>
-      </c>
-      <c r="C113" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" s="2" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 38522-2025</t>
+          <t>A 26855-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45884</v>
+        <v>44740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -714,304 +714,304 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsbräsma
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 39165-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Stor häxört</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 61064-2024</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45645.49443287037</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>5.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26855-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsbräsma
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 39165-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 8169-2024</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45351</v>
+        <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1051,555 +1051,555 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 8169-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Mjukdån</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 54127-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 1577-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 11170-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44987</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>0.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Korndådra</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 54127-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15475-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 1577-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45883</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44617</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44986</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44987</v>
+        <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45330</v>
+        <v>45442</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45330</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44986</v>
+        <v>45141</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45070</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44600</v>
+        <v>45531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45030</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45929</v>
+        <v>45910</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45671</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45030</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>45929</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44309</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>17.8</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44991</v>
+        <v>45394</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45769</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44993</v>
+        <v>45434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44361</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>44309</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>17.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45910</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45880</v>
+        <v>45769</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4187,13 +4187,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4245,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4282,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45883</v>
+        <v>44923</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4302,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4339,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45911</v>
+        <v>45016</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4359,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4396,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45531</v>
+        <v>44991</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4416,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4453,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44974</v>
+        <v>45880</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,8 +4472,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45671</v>
+        <v>44361</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>44986</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45111</v>
+        <v>45909</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45758</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45394</v>
+        <v>45070</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45386</v>
+        <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12.4</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45394</v>
+        <v>45761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>22.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761</v>
+        <v>46042</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44670</v>
+        <v>45988</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>22.1</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46042</v>
+        <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45988</v>
+        <v>46065</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>46051</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46065</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45719</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46051</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45747</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44593</v>
+        <v>45373</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>13.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44806</v>
+        <v>45176</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45671</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45671</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45434</v>
+        <v>45182</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45141</v>
+        <v>45225</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44382</v>
+        <v>44617</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44910</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45330</v>
+        <v>44806</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45330</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44449</v>
+        <v>45758</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45442</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44923</v>
+        <v>44593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45182</v>
+        <v>44987</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45176</v>
+        <v>44670</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45016</v>
+        <v>44910</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45225</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45373</v>
+        <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.9</v>
+        <v>6.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45330</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>44993</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45719</v>
+        <v>45394</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44588</v>
+        <v>45111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45386</v>
+        <v>44588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45747</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44986</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45330</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45386</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 61064-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44740</v>
+        <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -704,314 +704,314 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39165-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 39165-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 61064-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45645.49443287037</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 15456-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45401</v>
+        <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1058,378 +1058,378 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Korndådra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15456-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Lundticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 15475-2024</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45401</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>4.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 8169-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 54127-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Mjukdån</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 54127-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45306</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,14 +1518,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 8169-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44987</v>
+        <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1565,38 +1565,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Korndådra</t>
+          <t>Mjukdån</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45386</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45883</v>
+        <v>44617</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44986</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>44987</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44382</v>
+        <v>44986</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45070</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45442</v>
+        <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45030</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45671</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45330</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45141</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>44991</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>44993</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>44361</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45531</v>
+        <v>44309</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>17.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45910</v>
+        <v>45769</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45030</v>
+        <v>45880</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3560,8 +3560,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3603,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45929</v>
+        <v>45895</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3623,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3660,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45883</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3680,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3717,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3737,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3774,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>44974</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3794,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3831,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45394</v>
+        <v>45671</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3851,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3888,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3908,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3945,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45434</v>
+        <v>45111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3965,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +4002,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4022,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44309</v>
+        <v>45758</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>17.8</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45394</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45769</v>
+        <v>45910</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45911</v>
+        <v>45386</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>12.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4282,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44923</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4302,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4339,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45016</v>
+        <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4359,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4396,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44991</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4416,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4453,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45880</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4470,11 +4475,6 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -4515,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44361</v>
+        <v>45761</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44986</v>
+        <v>44670</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45909</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45070</v>
+        <v>45747</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44449</v>
+        <v>44593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>44806</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45761</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>22.1</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46042</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.7</v>
+        <v>22.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45988</v>
+        <v>45434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>46042</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44600</v>
+        <v>45988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46065</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46051</v>
+        <v>46065</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>46051</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45719</v>
+        <v>45141</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>44910</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45373</v>
+        <v>45330</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>13.9</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45176</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45671</v>
+        <v>44449</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45671</v>
+        <v>45442</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45182</v>
+        <v>44923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45225</v>
+        <v>45182</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44617</v>
+        <v>45176</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44806</v>
+        <v>45225</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45330</v>
+        <v>45373</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>13.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45758</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6339,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45330</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44593</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44987</v>
+        <v>45719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44670</v>
+        <v>44588</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44910</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>13</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44974</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44993</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45394</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45111</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44588</v>
+        <v>45330</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45747</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44986</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45330</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45386</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>12.4</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45548</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45306</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44617</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44986</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44987</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44986</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45070</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45030</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45671</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45708.64819444445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44991</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44993</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45908.3650462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44361</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44309</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45761.36854166666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45911.4182175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45769</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45880</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45895</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45883</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44974</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45671</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>45448.49752314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45573.31803240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45758</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45394</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45910</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45386</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45448.48983796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45987.61269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45645.47678240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45988.62502314815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45761</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44670</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45909</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45588.45855324074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45747</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>44806</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>45772.67386574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>46042</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>46049.50232638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>46065</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>46051</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>45141</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44910</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45330</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45434.55394675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44449</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45442</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45182</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45176</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45225</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45373</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45330</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45188.43670138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44588</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44449.66324074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45782.61987268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45782.66538194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45782.67826388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45785.65381944444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45434.37376157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45526.69388888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45330</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45096.65549768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45548</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45964</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45306</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44617</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44986</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44987</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44986</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45070</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45030</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45671</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45708.64819444445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44991</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44993</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45908.3650462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44361</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44309</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45761.36854166666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45911.4182175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45769</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45880</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45895</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45883</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44974</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45671</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>45448.49752314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45573.31803240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45758</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45394</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45910</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45386</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45448.48983796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45394</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45987.61269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45645.47678240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45988.62502314815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45761</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44670</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45909</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45588.45855324074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45747</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>44806</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>45772.67386574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>46042</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>46049.50232638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>46065</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>46051</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>45141</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44910</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45330</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45434.55394675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44449</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45442</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45182</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45176</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45225</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45373</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45330</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45188.43670138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44588</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44449.66324074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45782.61987268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45782.66538194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45782.67826388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45785.65381944444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45434.37376157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45526.69388888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45330</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45096.65549768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38522-2025</t>
+          <t>A 26855-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45884</v>
+        <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -800,32 +800,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot
-Stor häxört</t>
+          <t>Skogsbräsma
+Mattlummer</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>45548</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44740</v>
+        <v>45884</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -972,46 +972,46 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Mattlummer</t>
+          <t>Skogsknipprot
+Stor häxört</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44987</v>
+        <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1058,463 +1058,463 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1577-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 11170-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Korndådra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 54127-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 15475-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 54127-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54127-2025 artfynd.xlsx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54127-2025 karta.png", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54127-2025 FSC-klagomål.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54127-2025 FSC-klagomål mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54127-2025 tillsynsbegäran.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54127-2025 tillsynsbegäran mail.docx", "A 54127-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/fåglar/A 54127-2025 prioriterade fågelarter.docx", "A 54127-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 1577-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5937-2022</t>
+          <t>A 57451-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44598</v>
+        <v>44483.65050925926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1717,14 +1717,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 57451-2021</t>
+          <t>A 5937-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44483.65050925926</v>
+        <v>44598</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44308</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45030</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>44382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44617</v>
+        <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44986</v>
+        <v>44991</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44987</v>
+        <v>45386</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45442</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44986</v>
+        <v>44361</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45070</v>
+        <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44600</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45030</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45671</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45070</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45394</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44991</v>
+        <v>44449</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44993</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44361</v>
+        <v>44600</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>44923</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44309</v>
+        <v>45761</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>17.8</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45141</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45769</v>
+        <v>45719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45929</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45880</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3560,13 +3560,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45895</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45883</v>
+        <v>44806</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3680,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3717,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45531</v>
+        <v>45373</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3737,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>13.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3774,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44974</v>
+        <v>45176</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3794,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3838,7 +3833,7 @@
         <v>45671</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3888,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45671</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3908,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3945,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45111</v>
+        <v>45330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3965,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4002,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4022,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4066,7 +4061,7 @@
         <v>45758</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4116,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45394</v>
+        <v>45531</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4136,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4173,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45910</v>
+        <v>45883</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4193,7 +4188,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4230,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45386</v>
+        <v>45225</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4250,7 +4245,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.4</v>
+        <v>6.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4282,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>44617</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4302,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4339,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45394</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4359,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4396,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4416,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4453,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>44593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4473,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4510,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>44987</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4530,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4567,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45761</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4587,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4624,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44670</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4644,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4681,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45911</v>
+        <v>44670</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4701,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4738,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45909</v>
+        <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4758,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4795,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4815,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4852,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45747</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4872,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4909,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44593</v>
+        <v>44974</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4929,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4966,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44806</v>
+        <v>45929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4986,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5023,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5043,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5092,7 +5087,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5142,14 +5137,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>44993</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5157,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>22.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5194,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45434</v>
+        <v>45394</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5214,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5251,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46042</v>
+        <v>45111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5271,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5308,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45988</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5328,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5365,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>44588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5385,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5422,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46065</v>
+        <v>45747</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5442,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5479,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46051</v>
+        <v>45910</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5499,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5536,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45141</v>
+        <v>44986</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5556,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5593,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44382</v>
+        <v>45330</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5613,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5650,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44910</v>
+        <v>45386</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5670,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>12.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5707,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45330</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5727,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5764,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5784,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5821,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44449</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5883,14 +5878,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45442</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5898,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5935,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44923</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5955,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5992,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45182</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6012,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6049,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45176</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6069,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6106,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45016</v>
+        <v>45911</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6126,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6163,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45225</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6183,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6220,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45373</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6240,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6277,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6297,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6334,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>45330</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6354,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6391,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45909</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6411,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6448,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45719</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6468,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6505,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44588</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6530,7 +6525,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6562,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6582,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6619,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45386</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6639,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6676,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6696,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>22.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6733,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>46042</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6753,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6790,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45988</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6810,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6847,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6867,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6904,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6924,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6961,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>46065</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6981,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7018,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>46051</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7038,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7075,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45330</v>
+        <v>44309</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7095,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.5</v>
+        <v>17.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7132,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7152,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7189,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7209,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7246,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45880</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,8 +7265,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45895</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 61064-2024</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45645.49443287037</v>
+        <v>45884</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -704,314 +704,314 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 61064-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45645.49443287037</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 26855-2022</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44740</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>5.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 39165-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45548</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 15456-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45401</v>
+        <v>44987</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1058,45 +1058,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lundticka</t>
+          <t>Korndådra</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 15475-2024</t>
+          <t>A 8169-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45401</v>
+        <v>45351</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1109,17 +1109,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1143,31 +1143,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Mjukdån</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45306</v>
+        <v>45401</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,20 +1279,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.2</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1303,55 +1303,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Lundticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 15475-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44987</v>
+        <v>45401</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1388,41 +1388,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Korndådra</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>45964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,14 +1518,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8169-2024</t>
+          <t>A 1577-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45351</v>
+        <v>45306</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>21.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mjukdån</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 57451-2021</t>
+          <t>A 5937-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44483.65050925926</v>
+        <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1717,14 +1717,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5937-2022</t>
+          <t>A 57451-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44598</v>
+        <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44308</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45030</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44382</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45016</v>
+        <v>44617</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44991</v>
+        <v>44986</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45386</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45442</v>
+        <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44361</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44986</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45070</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45394</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45330</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44449</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>44986</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45434</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44600</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44923</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45761</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45141</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45719</v>
+        <v>45070</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44600</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45030</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45929</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44806</v>
+        <v>45671</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45373</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>13.9</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45176</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45671</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45671</v>
+        <v>44991</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45330</v>
+        <v>44309</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>17.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45182</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45758</v>
+        <v>44993</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45531</v>
+        <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45883</v>
+        <v>45769</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45225</v>
+        <v>45880</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4244,8 +4244,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4282,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44617</v>
+        <v>45895</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4302,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4339,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45883</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4359,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4396,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45910</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4416,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4453,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44593</v>
+        <v>45531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4473,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4510,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44987</v>
+        <v>44974</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4530,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4567,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45671</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4587,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4624,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4644,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4681,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44670</v>
+        <v>45111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4701,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44910</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4758,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4795,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>45758</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4815,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4852,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45394</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4872,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4909,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44974</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4929,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4966,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45929</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4986,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5023,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45386</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5043,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>12.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5080,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45911</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5100,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5137,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44993</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5157,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5194,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45394</v>
+        <v>45909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5214,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5251,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45111</v>
+        <v>45394</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5271,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5308,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5365,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44588</v>
+        <v>45761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5385,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5422,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45747</v>
+        <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5442,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5479,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45910</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5499,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5536,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44986</v>
+        <v>45747</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5556,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5593,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45330</v>
+        <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5613,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5650,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45386</v>
+        <v>44806</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5670,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>12.4</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5707,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5727,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5764,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5784,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>22.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5821,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5841,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5878,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>46042</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5898,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5935,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5992,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>46065</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6049,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>46051</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6106,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45911</v>
+        <v>45434</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6163,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6220,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>45141</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6277,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>44382</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6334,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45330</v>
+        <v>44910</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6391,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45909</v>
+        <v>45330</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6448,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6505,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>44449</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6562,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45442</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6619,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>44923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6676,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45182</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>22.1</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6733,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46042</v>
+        <v>45176</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6790,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45988</v>
+        <v>45016</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6847,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45225</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6904,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45373</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>13.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46065</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7018,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46051</v>
+        <v>45330</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7075,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44309</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>17.8</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7132,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7189,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45769</v>
+        <v>44588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7246,14 +7251,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45880</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7265,13 +7270,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45895</v>
+        <v>45386</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.1</v>
+        <v>13</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 38522-2025</t>
+          <t>A 26855-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45884</v>
+        <v>44740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -714,32 +714,32 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot
-Stor häxört</t>
+          <t>Skogsbräsma
+Mattlummer</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 39165-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44740</v>
+        <v>45548</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,80 +852,80 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Mattlummer</t>
+          <t>Skogsalm
+Ask</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39165-2024</t>
+          <t>A 38522-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45548</v>
+        <v>45884</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -953,65 +953,65 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm
-Ask</t>
+          <t>Skogsknipprot
+Stor häxört</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 1577-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44987</v>
+        <v>45306</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>21.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1048,55 +1048,55 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Korndådra</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8169-2024</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45351</v>
+        <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1136,296 +1136,296 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 8169-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Mjukdån</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 15475-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>45964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,14 +1518,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45306</v>
+        <v>44987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,23 +1538,23 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21.2</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1562,41 +1562,41 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Korndådra</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1888,14 +1888,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44501</v>
+        <v>44295</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1945,14 +1945,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 42617-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44295</v>
+        <v>44831.85881944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 42617-2022</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44831.85881944445</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44308</v>
+        <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44617</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44986</v>
+        <v>45394</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>44974</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44987</v>
+        <v>45386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>44382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>44923</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>44993</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45330</v>
+        <v>44600</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>45394</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44986</v>
+        <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45016</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>44991</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>45141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>44361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>45531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45070</v>
+        <v>44986</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44600</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45030</v>
+        <v>44588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45929</v>
+        <v>45747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45671</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3712,14 +3712,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3769,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>44986</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3883,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44991</v>
+        <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3940,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44309</v>
+        <v>45386</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>17.8</v>
+        <v>12.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44993</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4111,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44361</v>
+        <v>45070</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45769</v>
+        <v>44449</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45880</v>
+        <v>45719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4244,13 +4244,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4287,14 +4282,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45895</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4302,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4344,14 +4339,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45883</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4359,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4401,14 +4396,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45910</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4421,7 +4416,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4458,14 +4453,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45531</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4478,7 +4473,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4515,14 +4510,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44974</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4535,7 +4530,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4572,14 +4567,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45671</v>
+        <v>45883</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4592,7 +4587,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4629,14 +4624,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4649,7 +4644,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4686,14 +4681,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45111</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4706,7 +4701,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4743,14 +4738,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4763,7 +4758,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>13.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4800,14 +4795,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45758</v>
+        <v>45176</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4820,7 +4815,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4857,14 +4852,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45394</v>
+        <v>45761</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4877,7 +4872,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4914,14 +4909,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4934,7 +4929,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4971,14 +4966,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4991,7 +4986,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5028,14 +5023,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45386</v>
+        <v>45182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5048,7 +5043,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.4</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5085,14 +5080,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45911</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5105,7 +5100,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5142,14 +5137,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5162,7 +5157,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5199,14 +5194,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45909</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5219,7 +5214,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5256,14 +5251,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45394</v>
+        <v>45225</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5276,7 +5271,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5313,14 +5308,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>45330</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5328,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5370,14 +5365,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5385,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5427,14 +5422,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44670</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5447,7 +5442,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5484,14 +5479,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5504,7 +5499,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5541,14 +5536,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45747</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5561,7 +5556,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5598,14 +5593,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44593</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5618,7 +5613,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5655,14 +5650,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44806</v>
+        <v>44617</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5675,7 +5670,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5712,14 +5707,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5732,7 +5727,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5769,14 +5764,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5789,7 +5784,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>22.1</v>
+        <v>5.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5826,14 +5821,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5846,7 +5841,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5883,14 +5878,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46042</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5903,7 +5898,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5940,14 +5935,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>44806</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5960,7 +5955,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5997,14 +5992,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46065</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6017,7 +6012,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6054,14 +6049,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46051</v>
+        <v>45330</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6074,7 +6069,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6111,14 +6106,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45434</v>
+        <v>45758</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6131,7 +6126,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6168,14 +6163,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45988</v>
+        <v>45910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6188,7 +6183,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6225,14 +6220,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45141</v>
+        <v>44309</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6245,7 +6240,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7</v>
+        <v>17.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6282,14 +6277,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44382</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6302,7 +6297,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6339,14 +6334,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44910</v>
+        <v>45769</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6359,7 +6354,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6396,14 +6391,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45330</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6416,7 +6411,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6453,14 +6448,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6473,7 +6468,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6510,14 +6505,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44449</v>
+        <v>45880</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,8 +6524,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45442</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44923</v>
+        <v>45911</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45182</v>
+        <v>45895</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45176</v>
+        <v>44593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45016</v>
+        <v>44987</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45225</v>
+        <v>44670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45373</v>
+        <v>45909</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.9</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>44910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45330</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>22.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>46042</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45719</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44588</v>
+        <v>46065</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>46051</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45386</v>
+        <v>45988</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 39165-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44740</v>
+        <v>45548</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,338 +680,338 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 38522-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 61064-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45645.49443287037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 26855-2022 artfynd.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 26855-2022 karta.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 26855-2022 FSC-klagomål.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 26855-2022 FSC-klagomål mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 26855-2022 tillsynsbegäran.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 26855-2022 tillsynsbegäran mail.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 61064-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45645.49443287037</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 61064-2024 artfynd.xlsx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 61064-2024 karta.png", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 61064-2024 FSC-klagomål.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 61064-2024 FSC-klagomål mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 61064-2024 tillsynsbegäran.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 61064-2024 tillsynsbegäran mail.docx", "A 61064-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39165-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 39165-2024 artfynd.xlsx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 39165-2024 karta.png", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 39165-2024 FSC-klagomål.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 39165-2024 FSC-klagomål mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 39165-2024 tillsynsbegäran.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 39165-2024 tillsynsbegäran mail.docx", "A 39165-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 38522-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 38522-2025 artfynd.xlsx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 38522-2025 karta.png", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 38522-2025 FSC-klagomål.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 38522-2025 FSC-klagomål mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 38522-2025 tillsynsbegäran.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 38522-2025 tillsynsbegäran mail.docx", "A 38522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1577-2024</t>
+          <t>A 15456-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45306</v>
+        <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1024,20 +1024,20 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1048,310 +1048,310 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Lundticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 15475-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54424-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1577-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 1577-2024 artfynd.xlsx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 1577-2024 karta.png", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 1577-2024 FSC-klagomål.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 1577-2024 FSC-klagomål mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 1577-2024 tillsynsbegäran.docx", "A 1577-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 1577-2024 tillsynsbegäran mail.docx", "A 1577-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 15456-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Lundticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15456-2024 artfynd.xlsx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15456-2024 karta.png", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15456-2024 FSC-klagomål.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15456-2024 FSC-klagomål mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15456-2024 tillsynsbegäran.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15456-2024 tillsynsbegäran mail.docx", "A 15456-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 15475-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 15475-2024 artfynd.xlsx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 15475-2024 karta.png", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 15475-2024 FSC-klagomål.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 15475-2024 FSC-klagomål mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 15475-2024 tillsynsbegäran.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 15475-2024 tillsynsbegäran mail.docx", "A 15475-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 54424-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45233</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 54424-2023 artfynd.xlsx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 54424-2023 karta.png", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 54424-2023 FSC-klagomål.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 54424-2023 FSC-klagomål mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 54424-2023 tillsynsbegäran.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 54424-2023 tillsynsbegäran mail.docx", "A 54424-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 8169-2024</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45351</v>
+        <v>44987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1391,38 +1391,38 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Mjukdån</t>
+          <t>Korndådra</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>45964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,14 +1518,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 8169-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44987</v>
+        <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1565,38 +1565,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Korndådra</t>
+          <t>Mjukdån</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 11170-2023 artfynd.xlsx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/artfynd/A 8169-2024 artfynd.xlsx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 11170-2023 karta.png", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/kartor/A 8169-2024 karta.png", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 11170-2023 FSC-klagomål.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomål/A 8169-2024 FSC-klagomål.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 11170-2023 FSC-klagomål mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/klagomålsmail/A 8169-2024 FSC-klagomål mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 11170-2023 tillsynsbegäran.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsyn/A 8169-2024 tillsynsbegäran.docx", "A 8169-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 11170-2023 tillsynsbegäran mail.docx", "A 11170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1214/tillsynsmail/A 8169-2024 tillsynsbegäran mail.docx", "A 8169-2024")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1888,14 +1888,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44295</v>
+        <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1945,14 +1945,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42617-2022</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44831.85881944445</v>
+        <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47717-2022</t>
+          <t>A 42617-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44854.6058449074</v>
+        <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2059,14 +2059,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44501</v>
+        <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 47717-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44308</v>
+        <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48262-2021</t>
+          <t>A 13245-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44449.66324074074</v>
+        <v>45386</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 47696-2024</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45588.45855324074</v>
+        <v>44382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8332-2025</t>
+          <t>A 21774-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45708.64819444445</v>
+        <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14543-2024</t>
+          <t>A 34810-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45394</v>
+        <v>45141</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 22794-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44974</v>
+        <v>45448.49752314815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 13245-2024</t>
+          <t>A 35587-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45386</v>
+        <v>45531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 497-2023</t>
+          <t>A 38394-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44930.33540509259</v>
+        <v>45883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20170-2024</t>
+          <t>A 16667-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45434</v>
+        <v>45030</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2629,14 +2629,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11633-2024</t>
+          <t>A 26949-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45373.4740625</v>
+        <v>45811.43701388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2686,14 +2686,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 47696-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44382</v>
+        <v>45588.45855324074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 8332-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44923</v>
+        <v>45708.64819444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11922-2023</t>
+          <t>A 14543-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44993</v>
+        <v>45394</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21774-2024</t>
+          <t>A 42706-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45442</v>
+        <v>45908.37222222222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 22063-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44600</v>
+        <v>45785.37700231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14546-2024</t>
+          <t>A 42698-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45394</v>
+        <v>45908.3650462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32620-2023</t>
+          <t>A 20170-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45111</v>
+        <v>45434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15157-2023</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45016</v>
+        <v>44923</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11491-2023</t>
+          <t>A 43425-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44991</v>
+        <v>45911.4182175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34810-2023</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45141</v>
+        <v>44309</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>17.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22794-2024</t>
+          <t>A 17980-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45448.49752314815</v>
+        <v>45761.36854166666</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 19282-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44361</v>
+        <v>45769</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35587-2024</t>
+          <t>A 15157-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45531</v>
+        <v>45016</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 11491-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44986</v>
+        <v>44991</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1592-2024</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45306.58594907408</v>
+        <v>44361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44588</v>
+        <v>44986</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15487-2025</t>
+          <t>A 47139-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45747</v>
+        <v>45929</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44107-2023</t>
+          <t>A 37907-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45188.43670138889</v>
+        <v>45880</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3674,8 +3674,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3712,14 +3717,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20125-2024</t>
+          <t>A 44107-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45434.55394675926</v>
+        <v>45188.43670138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3732,7 +3737,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3769,14 +3774,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16667-2023</t>
+          <t>A 40470-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45030</v>
+        <v>45895</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3789,7 +3794,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3826,14 +3831,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 20235-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44986</v>
+        <v>45772.67386574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3846,7 +3851,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,14 +3888,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5184-2024</t>
+          <t>A 22262-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45330</v>
+        <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3903,7 +3908,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3940,14 +3945,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13273-2024</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45386</v>
+        <v>44449</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3960,7 +3965,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>12.4</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3997,14 +4002,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20235-2025</t>
+          <t>A 49032-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45772.67386574074</v>
+        <v>44860.44083333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4022,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4054,14 +4059,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44196-2024</t>
+          <t>A 18121-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45573.31803240741</v>
+        <v>45761</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4079,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4111,14 +4116,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22262-2023</t>
+          <t>A 43294-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45070</v>
+        <v>45910</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4136,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4168,14 +4173,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44449</v>
+        <v>44600</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4225,14 +4230,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10196-2025</t>
+          <t>A 20125-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45719</v>
+        <v>45434.55394675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4250,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4282,14 +4287,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49032-2022</t>
+          <t>A 10196-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44860.44083333333</v>
+        <v>45719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4302,7 +4307,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4339,14 +4344,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21507-2025</t>
+          <t>A 58970-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45782.61987268519</v>
+        <v>45987.61269675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4359,7 +4364,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4396,14 +4401,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 21556-2025</t>
+          <t>A 59230-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45782.67826388889</v>
+        <v>45988.62502314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4416,7 +4421,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4453,14 +4458,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21541-2025</t>
+          <t>A 44112-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45782.66538194445</v>
+        <v>45188.4418287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4473,7 +4478,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4510,14 +4515,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44112-2023</t>
+          <t>A 43466-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45188.4418287037</v>
+        <v>45911</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4530,7 +4535,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4567,14 +4572,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38394-2025</t>
+          <t>A 35911-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45883</v>
+        <v>45148.64078703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4587,7 +4592,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4624,14 +4629,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21814-2025</t>
+          <t>A 11672-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45783.72201388889</v>
+        <v>45373</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4644,7 +4649,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>13.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4681,14 +4686,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35911-2023</t>
+          <t>A 42588-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45148.64078703704</v>
+        <v>45176</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4701,7 +4706,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11672-2024</t>
+          <t>A 1901-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45373</v>
+        <v>45671</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4758,7 +4763,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>13.9</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4795,14 +4800,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42588-2023</t>
+          <t>A 1920-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45176</v>
+        <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4815,7 +4820,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4852,14 +4857,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18121-2025</t>
+          <t>A 43736-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45761</v>
+        <v>45182</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4872,7 +4877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4909,14 +4914,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1901-2025</t>
+          <t>A 43004-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45671</v>
+        <v>45909</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4929,7 +4934,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4966,14 +4971,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1920-2025</t>
+          <t>A 52664-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45671</v>
+        <v>45225</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4986,7 +4991,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5023,14 +5028,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43736-2023</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45182</v>
+        <v>44617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5043,7 +5048,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5080,14 +5085,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22203-2025</t>
+          <t>A 61045-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45785.65381944444</v>
+        <v>45645.47678240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5100,7 +5105,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5137,14 +5142,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20047-2024</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45434.37376157408</v>
+        <v>44806</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5157,7 +5162,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5194,14 +5199,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 34808-2024</t>
+          <t>A 5190-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45526.69388888889</v>
+        <v>45330</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5214,7 +5219,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5251,14 +5256,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52664-2023</t>
+          <t>A 62201-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45225</v>
+        <v>46006.55501157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5271,7 +5276,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.4</v>
+        <v>22.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5308,14 +5313,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5167-2024</t>
+          <t>A 17731-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45330</v>
+        <v>45758</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5333,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5365,14 +5370,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23747-2025</t>
+          <t>A 3430-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45793.44744212963</v>
+        <v>46042</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5385,7 +5390,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5422,14 +5427,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42706-2025</t>
+          <t>A 5068-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45908.37222222222</v>
+        <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5442,7 +5447,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5479,14 +5484,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42698-2025</t>
+          <t>A 9395-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45908.3650462963</v>
+        <v>46065</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5499,7 +5504,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5536,14 +5541,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43425-2025</t>
+          <t>A 6365-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45911.4182175926</v>
+        <v>46051</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5556,7 +5561,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5593,14 +5598,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24513-2025</t>
+          <t>A 22792-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45798.40712962963</v>
+        <v>45448.48983796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5613,7 +5618,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5650,14 +5655,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 59266-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44617</v>
+        <v>45988</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5670,7 +5675,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5707,14 +5712,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27310-2023</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45096.65549768518</v>
+        <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5727,7 +5732,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5764,14 +5769,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61045-2024</t>
+          <t>A 11177-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45645.47678240741</v>
+        <v>44987</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5784,7 +5789,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5821,14 +5826,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47139-2025</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45929</v>
+        <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5841,7 +5846,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5878,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26949-2025</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45811.43701388889</v>
+        <v>44910</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5898,7 +5903,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5935,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 48262-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44806</v>
+        <v>44449.66324074074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5992,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 22063-2025</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45785.37700231482</v>
+        <v>44974</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6049,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5190-2024</t>
+          <t>A 497-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45330</v>
+        <v>44930.33540509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6074,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6106,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17731-2025</t>
+          <t>A 11633-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45758</v>
+        <v>45373.4740625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6163,14 +6168,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43294-2025</t>
+          <t>A 11922-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45910</v>
+        <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6188,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6220,14 +6225,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 14546-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44309</v>
+        <v>45394</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6245,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>17.8</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6277,14 +6282,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17980-2025</t>
+          <t>A 32620-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45761.36854166666</v>
+        <v>45111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6302,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6334,14 +6339,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 19282-2025</t>
+          <t>A 1592-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45769</v>
+        <v>45306.58594907408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6359,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6391,14 +6396,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22792-2024</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45448.48983796296</v>
+        <v>44588</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6448,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58970-2025</t>
+          <t>A 15487-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45987.61269675926</v>
+        <v>45747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6505,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37907-2025</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45880</v>
+        <v>44986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6524,13 +6529,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6567,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59230-2025</t>
+          <t>A 5184-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45988.62502314815</v>
+        <v>45330</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6624,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43466-2025</t>
+          <t>A 13273-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911</v>
+        <v>45386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>12.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40470-2025</t>
+          <t>A 44196-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45895</v>
+        <v>45573.31803240741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 21507-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44593</v>
+        <v>45782.61987268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6795,14 +6795,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11177-2023</t>
+          <t>A 21556-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44987</v>
+        <v>45782.67826388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6852,14 +6852,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 21541-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44670</v>
+        <v>45782.66538194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6909,14 +6909,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43004-2025</t>
+          <t>A 21814-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45909</v>
+        <v>45783.72201388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 22203-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44910</v>
+        <v>45785.65381944444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62201-2025</t>
+          <t>A 20047-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46006.55501157408</v>
+        <v>45434.37376157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>22.1</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3430-2026</t>
+          <t>A 34808-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46042</v>
+        <v>45526.69388888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7137,14 +7137,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5068-2026</t>
+          <t>A 5167-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46049.50232638889</v>
+        <v>45330</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7194,14 +7194,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9395-2026</t>
+          <t>A 23747-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46065</v>
+        <v>45793.44744212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6365-2026</t>
+          <t>A 24513-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46051</v>
+        <v>45798.40712962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7308,14 +7308,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59266-2025</t>
+          <t>A 27310-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45988</v>
+        <v>45096.65549768518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45910</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45548</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45645.49443287037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45306</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>45964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44763.51302083334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44598</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44483.65050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>44847.63377314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44295</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44831.85881944445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44854.6058449074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45386</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>45141</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45448.49752314815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45030</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45811.43701388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45588.45855324074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45708.64819444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45394</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45908.37222222222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45785.37700231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45908.3650462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>44923</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45911.4182175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44309</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45761.36854166666</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45769</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45016</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44991</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44986</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45929</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45880</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45188.43670138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>45895</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45772.67386574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44449</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44860.44083333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45761</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45910</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44600</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45434.55394675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45987.61269675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45988.62502314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45188.4418287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45911</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45148.64078703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>45373</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45176</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45671</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45182</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45909</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45225</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>44617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45645.47678240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>44806</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45330</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>46006.55501157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45758</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>46042</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>46049.50232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>46065</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>46051</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45448.48983796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45988</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44987</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44910</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44449.66324074074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44974</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44930.33540509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45373.4740625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45394</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>45111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>45306.58594907408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44588</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45747</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45330</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45386</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45573.31803240741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45782.61987268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45782.67826388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45782.66538194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45783.72201388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45785.65381944444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45434.37376157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45526.69388888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45330</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45793.44744212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45798.40712962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45096.65549768518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
